--- a/Data/Input/StudentData.xlsx
+++ b/Data/Input/StudentData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53" count="53">
   <si>
     <t>GR Numbers</t>
   </si>
@@ -50,76 +50,109 @@
     <t>CGPA</t>
   </si>
   <si>
+    <t>10th %</t>
+  </si>
+  <si>
+    <t>12th %</t>
+  </si>
+  <si>
+    <t>Backlogs</t>
+  </si>
+  <si>
     <t>21810054</t>
   </si>
   <si>
+    <t>MECH</t>
+  </si>
+  <si>
+    <t>NIKHIL</t>
+  </si>
+  <si>
+    <t>BHUTANI</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>14/06/2000</t>
+  </si>
+  <si>
+    <t>nikhil.21810054@viit.ac.in</t>
+  </si>
+  <si>
+    <t>nikhilbhutani@gmail.com</t>
+  </si>
+  <si>
+    <t>9923819021</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>9.45</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>21810691</t>
+  </si>
+  <si>
+    <t>ENTC</t>
+  </si>
+  <si>
+    <t>SHANTANU</t>
+  </si>
+  <si>
+    <t>DUSANE</t>
+  </si>
+  <si>
+    <t>07/04/2001</t>
+  </si>
+  <si>
+    <t>shantanu.21810691@viit.ac.in</t>
+  </si>
+  <si>
+    <t>srdusane123@gmail.com</t>
+  </si>
+  <si>
+    <t>9049303430</t>
+  </si>
+  <si>
+    <t>9.75</t>
+  </si>
+  <si>
+    <t>75.08</t>
+  </si>
+  <si>
+    <t>74.01</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>21810714</t>
+  </si>
+  <si>
     <t>COMP</t>
   </si>
   <si>
-    <t>NIKHIL</t>
-  </si>
-  <si>
-    <t>BHUTANI</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>14/06/2000</t>
-  </si>
-  <si>
-    <t>nikhil.21810054@viit.ac.in</t>
-  </si>
-  <si>
-    <t>nikhilbhutani@gmail.com</t>
-  </si>
-  <si>
-    <t>9923819021</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>9.45</t>
-  </si>
-  <si>
-    <t>21810691</t>
-  </si>
-  <si>
-    <t>SHANTANU</t>
-  </si>
-  <si>
-    <t>DUSANE</t>
-  </si>
-  <si>
-    <t>07/04/2001</t>
-  </si>
-  <si>
-    <t>shantanu.21810691@viit.ac.in</t>
-  </si>
-  <si>
-    <t>srdusane123@gmail.com</t>
-  </si>
-  <si>
-    <t>9049303430</t>
-  </si>
-  <si>
-    <t>9.75</t>
-  </si>
-  <si>
-    <t>21810714</t>
-  </si>
-  <si>
     <t>AMIT</t>
   </si>
   <si>
     <t>ZOPE</t>
   </si>
   <si>
-    <t>27/02/2000</t>
+    <t>28/02/2000</t>
   </si>
   <si>
     <t>amit.21810714@viit.ac.in</t>
@@ -128,7 +161,16 @@
     <t>amit@gmail.com</t>
   </si>
   <si>
-    <t>9563245424</t>
+    <t>8563245698</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>75.89</t>
+  </si>
+  <si>
+    <t>85.45</t>
   </si>
 </sst>
 </file>
@@ -219,119 +261,155 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Input/StudentData.xlsx
+++ b/Data/Input/StudentData.xlsx
@@ -74,7 +74,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>14/06/2000</t>
+    <t>14/11/2021</t>
   </si>
   <si>
     <t>nikhil.21810054@viit.ac.in</t>
@@ -98,7 +98,7 @@
     <t>85</t>
   </si>
   <si>
-    <t>75</t>
+    <t>90</t>
   </si>
   <si>
     <t>0</t>

--- a/Data/Input/StudentData.xlsx
+++ b/Data/Input/StudentData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117" count="117">
   <si>
     <t>GR Numbers</t>
   </si>
@@ -62,7 +62,7 @@
     <t>21810054</t>
   </si>
   <si>
-    <t>MECH</t>
+    <t>COMP</t>
   </si>
   <si>
     <t>NIKHIL</t>
@@ -74,13 +74,13 @@
     <t>Male</t>
   </si>
   <si>
-    <t>14/11/2021</t>
+    <t>27/02/2000</t>
   </si>
   <si>
     <t>nikhil.21810054@viit.ac.in</t>
   </si>
   <si>
-    <t>nikhilbhutani@gmail.com</t>
+    <t>nikhilbhutani999@gmail.com</t>
   </si>
   <si>
     <t>9923819021</t>
@@ -92,31 +92,175 @@
     <t>2022</t>
   </si>
   <si>
-    <t>9.45</t>
-  </si>
-  <si>
-    <t>85</t>
+    <t>9.46</t>
+  </si>
+  <si>
+    <t>92.4</t>
+  </si>
+  <si>
+    <t>78.9</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>21810340</t>
+  </si>
+  <si>
+    <t>PRANAV</t>
+  </si>
+  <si>
+    <t>WAGH</t>
+  </si>
+  <si>
+    <t>19/11/2021</t>
+  </si>
+  <si>
+    <t>pranav.21810340@viit.ac.in</t>
+  </si>
+  <si>
+    <t>pranav14112000@gmail.com</t>
+  </si>
+  <si>
+    <t>7066680318</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>9.9</t>
+  </si>
+  <si>
+    <t>93.2</t>
+  </si>
+  <si>
+    <t>87.08</t>
+  </si>
+  <si>
+    <t>21810362</t>
+  </si>
+  <si>
+    <t>RUTURAJ</t>
+  </si>
+  <si>
+    <t>TAMBE</t>
+  </si>
+  <si>
+    <t>21/04/2001</t>
+  </si>
+  <si>
+    <t>ruturaj.21810362@viit.ac.in</t>
+  </si>
+  <si>
+    <t>rutubtambe@gmail.com</t>
+  </si>
+  <si>
+    <t>9370369436</t>
+  </si>
+  <si>
+    <t>9.75</t>
+  </si>
+  <si>
+    <t>95.40</t>
+  </si>
+  <si>
+    <t>90.15</t>
+  </si>
+  <si>
+    <t>21810372</t>
+  </si>
+  <si>
+    <t>HARSHIT</t>
+  </si>
+  <si>
+    <t>BHANUSHALI</t>
+  </si>
+  <si>
+    <t>harshit.21810372@viit.ac.in</t>
+  </si>
+  <si>
+    <t>bhanushaliharshit@gmail.com</t>
+  </si>
+  <si>
+    <t>9561396936</t>
+  </si>
+  <si>
+    <t>9.5</t>
   </si>
   <si>
     <t>90</t>
   </si>
   <si>
-    <t>0</t>
+    <t>82.46</t>
+  </si>
+  <si>
+    <t>21810579</t>
+  </si>
+  <si>
+    <t>NAVEEN</t>
+  </si>
+  <si>
+    <t>KUMAR</t>
+  </si>
+  <si>
+    <t>naveen.21810579@viit.ac.in</t>
+  </si>
+  <si>
+    <t>contact@naveenkr.dev</t>
+  </si>
+  <si>
+    <t>6375231010</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>87.5</t>
+  </si>
+  <si>
+    <t>85.7</t>
+  </si>
+  <si>
+    <t>21810644</t>
+  </si>
+  <si>
+    <t>Raj</t>
+  </si>
+  <si>
+    <t>Tawari</t>
+  </si>
+  <si>
+    <t>20/11/2021</t>
+  </si>
+  <si>
+    <t>raj.21810644@viit.ac.in</t>
+  </si>
+  <si>
+    <t>rajtaori05@gmail.com</t>
+  </si>
+  <si>
+    <t>7028892501</t>
+  </si>
+  <si>
+    <t>9.01</t>
+  </si>
+  <si>
+    <t>90.4</t>
+  </si>
+  <si>
+    <t>74</t>
   </si>
   <si>
     <t>21810691</t>
   </si>
   <si>
-    <t>ENTC</t>
-  </si>
-  <si>
     <t>SHANTANU</t>
   </si>
   <si>
     <t>DUSANE</t>
   </si>
   <si>
-    <t>07/04/2001</t>
+    <t>30/11/2021</t>
   </si>
   <si>
     <t>shantanu.21810691@viit.ac.in</t>
@@ -128,49 +272,97 @@
     <t>9049303430</t>
   </si>
   <si>
-    <t>9.75</t>
-  </si>
-  <si>
-    <t>75.08</t>
-  </si>
-  <si>
-    <t>74.01</t>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>91.8</t>
+  </si>
+  <si>
+    <t>87.69</t>
+  </si>
+  <si>
+    <t>21810705</t>
+  </si>
+  <si>
+    <t>RUCHA</t>
+  </si>
+  <si>
+    <t>KHODE</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>31/07/2000</t>
+  </si>
+  <si>
+    <t>rucha.21810705@viit.ac.in</t>
+  </si>
+  <si>
+    <t>ruchakhode07@gmail.com</t>
+  </si>
+  <si>
+    <t>7517626912</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>21810714</t>
+  </si>
+  <si>
+    <t>AMIT</t>
+  </si>
+  <si>
+    <t>ZOPE</t>
+  </si>
+  <si>
+    <t>amit.21810714@viit.ac.in</t>
+  </si>
+  <si>
+    <t>amit@gmail.com</t>
+  </si>
+  <si>
+    <t>8563245698</t>
+  </si>
+  <si>
+    <t>9.4</t>
+  </si>
+  <si>
+    <t>88.63</t>
+  </si>
+  <si>
+    <t>85.45</t>
+  </si>
+  <si>
+    <t>21810928</t>
+  </si>
+  <si>
+    <t>MOHIT</t>
+  </si>
+  <si>
+    <t>MISHRIKOTI</t>
+  </si>
+  <si>
+    <t>mohit.21810928@viit.ac.in</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>7.26</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>68</t>
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>21810714</t>
-  </si>
-  <si>
-    <t>COMP</t>
-  </si>
-  <si>
-    <t>AMIT</t>
-  </si>
-  <si>
-    <t>ZOPE</t>
-  </si>
-  <si>
-    <t>28/02/2000</t>
-  </si>
-  <si>
-    <t>amit.21810714@viit.ac.in</t>
-  </si>
-  <si>
-    <t>amit@gmail.com</t>
-  </si>
-  <si>
-    <t>8563245698</t>
-  </si>
-  <si>
-    <t>9.4</t>
-  </si>
-  <si>
-    <t>75.89</t>
-  </si>
-  <si>
-    <t>85.45</t>
   </si>
 </sst>
 </file>
@@ -323,31 +515,31 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>37</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
@@ -362,36 +554,36 @@
         <v>40</v>
       </c>
       <c r="O3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
         <v>46</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>49</v>
       </c>
       <c r="J4" t="s">
         <v>24</v>
@@ -400,16 +592,345 @@
         <v>25</v>
       </c>
       <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
         <v>50</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>51</v>
       </c>
-      <c r="N4" t="s">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
         <v>52</v>
       </c>
-      <c r="O4" t="s">
-        <v>41</v>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>86</v>
+      </c>
+      <c r="M8" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" t="s">
+        <v>112</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" t="s">
+        <v>114</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
